--- a/Shopizer_AllProducts_manual_testCases_AdityaJadhav.xlsx
+++ b/Shopizer_AllProducts_manual_testCases_AdityaJadhav.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MiniProjectGIT\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E04D4B7-B896-4A1E-A734-80C30688B7F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3C9B2-C449-4D29-8624-CCE87DB208E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1455,67 +1455,67 @@
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
     </row>
-    <row r="26" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+    <row r="23" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B23" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D23" s="29">
         <v>1</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="29" t="s">
+      <c r="F23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="29" t="s">
+      <c r="G23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H26" s="29" t="s">
+      <c r="H23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="30" t="s">
+      <c r="J23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K26" s="22"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33" t="s">
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="22"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="24" t="s">
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="43"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1524,18 +1524,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,18 +1703,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Shopizer_AllProducts_manual_testCases_AdityaJadhav.xlsx
+++ b/Shopizer_AllProducts_manual_testCases_AdityaJadhav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MiniProjectGIT\Shopizer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shopizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D3C9B2-C449-4D29-8624-CCE87DB208E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC34E6C-2B69-43F0-AC36-6079B5547DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
     <t>Sc_id</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t>Particular product must be added to the cart and shown on the right top corner of the page.</t>
+  </si>
+  <si>
+    <t>Automate</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -769,15 +775,15 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" customWidth="1"/>
-    <col min="5" max="5" width="48.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="48.36328125" customWidth="1"/>
+    <col min="4" max="4" width="43.81640625" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,11 +800,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
@@ -815,7 +821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -824,7 +830,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -833,14 +839,14 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="14"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -857,7 +863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -868,7 +874,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -877,14 +883,14 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>46</v>
       </c>
@@ -901,7 +907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -910,7 +916,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -919,14 +925,14 @@
       </c>
       <c r="E13" s="19"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>47</v>
       </c>
@@ -943,7 +949,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -952,7 +958,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
@@ -961,14 +967,14 @@
       </c>
       <c r="E17" s="19"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>48</v>
       </c>
@@ -985,7 +991,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -994,7 +1000,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
@@ -1011,137 +1017,141 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36.21875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="39.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.08984375" style="3"/>
+    <col min="2" max="2" width="18.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="39.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="24.54296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="55.08984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D2" s="21"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="21"/>
+      <c r="G2" s="22"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="I2" s="21"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" ht="25.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29">
+      <c r="E3" s="29">
         <v>1</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="G3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="H3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="I3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="J3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="K3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33" t="s">
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="34">
+      <c r="E4" s="34">
         <v>2</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="F4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="34"/>
       <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="22"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="24" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="22"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C6" s="22"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
@@ -1150,76 +1160,79 @@
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="29">
+      <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="H7" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="I7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="J7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="K7" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="22"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="33" t="s">
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="34">
+      <c r="E8" s="34">
         <v>2</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="22"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="24" t="s">
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C10" s="22"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="22"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1228,77 +1241,80 @@
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="D11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="29">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="F11" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="G11" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="H11" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="I11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="K11" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33" t="s">
+      <c r="L11" s="22"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="34">
+      <c r="E12" s="34">
         <v>2</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="24" t="s">
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="22"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="38"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
       <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="23"/>
-      <c r="D14" s="22"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D14" s="23"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -1306,73 +1322,76 @@
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-    </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="29">
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="G15" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="H15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="I15" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="J15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="K15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="16" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="33" t="s">
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="41"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="41"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="22"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="24" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="38"/>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38"/>
       <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="23"/>
-      <c r="D18" s="22"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D18" s="23"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -1380,73 +1399,76 @@
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="L18" s="22"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="C19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="D19" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="29">
+      <c r="E19" s="29">
         <v>1</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="F19" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="29" t="s">
+      <c r="G19" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="H19" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="I19" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="J19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="K19" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K19" s="22"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33" t="s">
+      <c r="L19" s="22"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="22"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="24" t="s">
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="38"/>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38"/>
       <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="22"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="22"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D22" s="21"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -1454,68 +1476,72 @@
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
-    </row>
-    <row r="23" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="27" t="s">
+      <c r="L22" s="22"/>
+    </row>
+    <row r="23" spans="1:12" ht="34.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="C23" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="29">
+      <c r="E23" s="29">
         <v>1</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="F23" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F23" s="29" t="s">
+      <c r="G23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="H23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="I23" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="J23" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="K23" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="22"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="33" t="s">
+      <c r="L23" s="22"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="22"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="24" t="s">
+      <c r="J24" s="34"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="22"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
-      <c r="J25" s="43"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="43"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1524,18 +1550,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1703,18 +1729,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC9FDFB-29C9-4D71-A78D-DC63A8164647}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1CA316B-A5FF-4AE2-9421-20955EA2F4E1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
